--- a/core/utils/distgradeunificadaARARANGUA.xlsx
+++ b/core/utils/distgradeunificadaARARANGUA.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28429"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28526"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Ventura System\Ventura Back-End\project-beck_ventura\core\utils\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8F30BD8A-272E-4EA4-8DF4-F512320B55BA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E083B3D1-EE86-48C7-BFF5-0BDD2A0F58FF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="21840" windowHeight="13020" xr2:uid="{A7D8F346-A79E-4C25-BB45-DA9F96A70FA9}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{A7D8F346-A79E-4C25-BB45-DA9F96A70FA9}"/>
   </bookViews>
   <sheets>
     <sheet name="Planilha1" sheetId="1" r:id="rId1"/>
@@ -615,9 +615,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{414053F0-9035-4345-833E-9715016AA804}">
   <dimension ref="A1:T6"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="68" zoomScaleNormal="68" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="J18" sqref="J18"/>
+      <selection pane="bottomLeft" activeCell="M14" sqref="M14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -712,48 +712,20 @@
       <c r="F2" s="7" t="s">
         <v>17</v>
       </c>
-      <c r="G2" s="9">
-        <v>116</v>
-      </c>
-      <c r="H2" s="9">
-        <v>342</v>
-      </c>
-      <c r="I2" s="9">
-        <v>497</v>
-      </c>
-      <c r="J2" s="9">
-        <v>889</v>
-      </c>
-      <c r="K2" s="9">
-        <v>597</v>
-      </c>
-      <c r="L2" s="9">
-        <v>396</v>
-      </c>
-      <c r="M2" s="9">
-        <v>351</v>
-      </c>
-      <c r="N2" s="9">
-        <v>246</v>
-      </c>
-      <c r="O2" s="9">
-        <v>252</v>
-      </c>
-      <c r="P2" s="9">
-        <v>251</v>
-      </c>
-      <c r="Q2" s="9">
-        <v>156</v>
-      </c>
-      <c r="R2" s="9">
-        <v>106</v>
-      </c>
-      <c r="S2" s="9">
-        <v>61</v>
-      </c>
-      <c r="T2" s="9">
-        <v>40</v>
-      </c>
+      <c r="G2" s="9"/>
+      <c r="H2" s="9"/>
+      <c r="I2" s="9"/>
+      <c r="J2" s="9"/>
+      <c r="K2" s="9"/>
+      <c r="L2" s="9"/>
+      <c r="M2" s="9"/>
+      <c r="N2" s="9"/>
+      <c r="O2" s="9"/>
+      <c r="P2" s="9"/>
+      <c r="Q2" s="9"/>
+      <c r="R2" s="9"/>
+      <c r="S2" s="9"/>
+      <c r="T2" s="9"/>
     </row>
     <row r="3" spans="1:20" ht="23.25" x14ac:dyDescent="0.25">
       <c r="A3" s="6" t="s">
@@ -780,30 +752,14 @@
       <c r="J3" s="9"/>
       <c r="K3" s="9"/>
       <c r="L3" s="9"/>
-      <c r="M3" s="9">
-        <v>390</v>
-      </c>
-      <c r="N3" s="9">
-        <v>300</v>
-      </c>
-      <c r="O3" s="9">
-        <v>337</v>
-      </c>
-      <c r="P3" s="9">
-        <v>300</v>
-      </c>
-      <c r="Q3" s="9">
-        <v>127</v>
-      </c>
-      <c r="R3" s="9">
-        <v>71</v>
-      </c>
-      <c r="S3" s="9">
-        <v>30</v>
-      </c>
-      <c r="T3" s="9">
-        <v>20</v>
-      </c>
+      <c r="M3" s="9"/>
+      <c r="N3" s="9"/>
+      <c r="O3" s="9"/>
+      <c r="P3" s="9"/>
+      <c r="Q3" s="9"/>
+      <c r="R3" s="9"/>
+      <c r="S3" s="9"/>
+      <c r="T3" s="9"/>
     </row>
     <row r="4" spans="1:20" ht="23.25" x14ac:dyDescent="0.25">
       <c r="A4" s="6" t="s">
@@ -824,48 +780,20 @@
       <c r="F4" s="7" t="s">
         <v>17</v>
       </c>
-      <c r="G4" s="9">
-        <v>119</v>
-      </c>
-      <c r="H4" s="9">
-        <v>610</v>
-      </c>
-      <c r="I4" s="9">
-        <v>811</v>
-      </c>
-      <c r="J4" s="9">
-        <v>1400</v>
-      </c>
-      <c r="K4" s="9">
-        <v>1252</v>
-      </c>
-      <c r="L4" s="9">
-        <v>816</v>
-      </c>
-      <c r="M4" s="9">
-        <v>708</v>
-      </c>
-      <c r="N4" s="9">
-        <v>482</v>
-      </c>
-      <c r="O4" s="9">
-        <v>432</v>
-      </c>
-      <c r="P4" s="9">
-        <v>457</v>
-      </c>
-      <c r="Q4" s="9">
-        <v>171</v>
-      </c>
-      <c r="R4" s="9">
-        <v>119</v>
-      </c>
-      <c r="S4" s="9">
-        <v>48</v>
-      </c>
-      <c r="T4" s="9">
-        <v>25</v>
-      </c>
+      <c r="G4" s="9"/>
+      <c r="H4" s="9"/>
+      <c r="I4" s="9"/>
+      <c r="J4" s="9"/>
+      <c r="K4" s="9"/>
+      <c r="L4" s="9"/>
+      <c r="M4" s="9"/>
+      <c r="N4" s="9"/>
+      <c r="O4" s="9"/>
+      <c r="P4" s="9"/>
+      <c r="Q4" s="9"/>
+      <c r="R4" s="9"/>
+      <c r="S4" s="9"/>
+      <c r="T4" s="9"/>
     </row>
     <row r="5" spans="1:20" ht="23.25" x14ac:dyDescent="0.25">
       <c r="A5" s="6" t="s">
@@ -889,17 +817,11 @@
       <c r="G5" s="9"/>
       <c r="H5" s="9"/>
       <c r="I5" s="9"/>
-      <c r="J5" s="9">
-        <v>26</v>
-      </c>
-      <c r="K5" s="9">
-        <v>581</v>
-      </c>
+      <c r="J5" s="9"/>
+      <c r="K5" s="9"/>
       <c r="L5" s="9"/>
       <c r="M5" s="9"/>
-      <c r="N5" s="9">
-        <v>18</v>
-      </c>
+      <c r="N5" s="9"/>
       <c r="O5" s="9"/>
       <c r="P5" s="9"/>
       <c r="Q5" s="9"/>

--- a/core/utils/distgradeunificadaARARANGUA.xlsx
+++ b/core/utils/distgradeunificadaARARANGUA.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28526"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28730"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Ventura System\Ventura Back-End\project-beck_ventura\core\utils\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E083B3D1-EE86-48C7-BFF5-0BDD2A0F58FF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{75E45971-3911-41B1-81DA-B5D283316FC7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{A7D8F346-A79E-4C25-BB45-DA9F96A70FA9}"/>
   </bookViews>
@@ -617,7 +617,7 @@
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="M14" sqref="M14"/>
+      <selection pane="bottomLeft" activeCell="P15" sqref="P15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
